--- a/public/excel/bao-cao-ton.xlsx
+++ b/public/excel/bao-cao-ton.xlsx
@@ -405,8 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="4" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -436,48 +439,6 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>-50</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/bao-cao-ton.xlsx
+++ b/public/excel/bao-cao-ton.xlsx
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
